--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A39AA8E-ECE7-48FB-A1DF-7AC39B0F7167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B39F0C4-B7F6-46A7-AF37-F9ABB67A5E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,127 +74,156 @@
     <t>41,38,40</t>
   </si>
   <si>
-    <t>0.000025,0.000025,0.000025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>3업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000012,0.000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000013,0.000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000014,0.000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000015,0.000015,0.000015</t>
+  </si>
+  <si>
+    <t>0.000016,0.000016,0.000016</t>
+  </si>
+  <si>
+    <t>0.000017,0.000017,0.000017</t>
+  </si>
+  <si>
+    <t>0.000018,0.000018,0.000018</t>
+  </si>
+  <si>
+    <t>0.000019,0.000019,0.000019</t>
+  </si>
+  <si>
+    <t>0.000020,0.000020,0.000020</t>
+  </si>
+  <si>
+    <t>0.000021,0.000021,0.000021</t>
+  </si>
+  <si>
+    <t>0.000022,0.000022,0.000022</t>
+  </si>
+  <si>
+    <t>10업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000042,0.000042,0.000042</t>
+  </si>
+  <si>
+    <t>0.000034,0.000034,0.000034</t>
+  </si>
+  <si>
+    <t>0.000038,0.000038,0.000038</t>
+  </si>
+  <si>
+    <t>0.000046,0.000046,0.000046</t>
+  </si>
+  <si>
+    <t>3000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000024,0.000024,0.000024</t>
   </si>
   <si>
     <t>0.000026,0.000026,0.000026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000027,0.000027,0.000027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.000028,0.000028,0.000028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000겁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500겁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100겁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1겁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.00003,0.00003,0.00003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000024,0.000024,0.000024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000012,0.000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000013,0.000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000014,0.000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000015,0.000015,0.000015</t>
-  </si>
-  <si>
-    <t>0.000016,0.000016,0.000016</t>
-  </si>
-  <si>
-    <t>0.000017,0.000017,0.000017</t>
-  </si>
-  <si>
-    <t>0.000018,0.000018,0.000018</t>
-  </si>
-  <si>
-    <t>0.000019,0.000019,0.000019</t>
-  </si>
-  <si>
-    <t>0.000020,0.000020,0.000020</t>
-  </si>
-  <si>
-    <t>0.000021,0.000021,0.000021</t>
-  </si>
-  <si>
-    <t>0.000022,0.000022,0.000022</t>
-  </si>
-  <si>
-    <t>0.000023,0.000023,0.000023</t>
+  </si>
+  <si>
+    <t>0.000030,0.000030,0.000030</t>
+  </si>
+  <si>
+    <t>0.000032,0.000032,0.000032</t>
+  </si>
+  <si>
+    <t>0.000036,0.000036,0.000036</t>
+  </si>
+  <si>
+    <t>0.000040,0.000040,0.000040</t>
+  </si>
+  <si>
+    <t>0.000044,0.000044,0.000044</t>
   </si>
 </sst>
 </file>
@@ -256,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,6 +294,12 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,11 +616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,13 +656,13 @@
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -638,13 +673,13 @@
         <v>1.0000000000000001E+70</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -655,13 +690,13 @@
         <v>1E+71</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -672,13 +707,13 @@
         <v>4.9999999999999997E+71</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -689,13 +724,13 @@
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -706,13 +741,13 @@
         <v>9.9999999999999995E+73</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -723,13 +758,13 @@
         <v>4.9999999999999996E+74</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -740,13 +775,13 @@
         <v>9.9999999999999993E+74</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,13 +792,13 @@
         <v>3E+75</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -774,13 +809,13 @@
         <v>5.0000000000000002E+75</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -791,13 +826,13 @@
         <v>1E+76</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -808,13 +843,13 @@
         <v>1E+78</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,13 +860,13 @@
         <v>4.9999999999999998E+78</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -842,13 +877,13 @@
         <v>9.9999999999999997E+78</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -856,68 +891,157 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>5E+79</v>
+        <v>2.9999999999999997E+79</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>1E+80</v>
+        <v>5E+79</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>2E+80</v>
+        <v>1E+80</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="2">
+        <v>2E+80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
         <v>2.9999999999999999E+80</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9.9999999999999992E+80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3E+81</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.9999999999999998E+81</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>9.9999999999999996E+81</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B39F0C4-B7F6-46A7-AF37-F9ABB67A5E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F4F51-AF39-4CEE-9E6E-14E8670DB6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,27 @@
   </si>
   <si>
     <t>0.000044,0.000044,0.000044</t>
+  </si>
+  <si>
+    <t>1000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000048,0.000048,0.000048</t>
+  </si>
+  <si>
+    <t>0.000050,0.000050,0.000050</t>
+  </si>
+  <si>
+    <t>0.000052,0.000052,0.000052</t>
   </si>
 </sst>
 </file>
@@ -616,11 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1043,6 +1064,57 @@
       </c>
       <c r="F24"/>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1E+83</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3E+83</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.0000000000000003E+83</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F4F51-AF39-4CEE-9E6E-14E8670DB6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BB3BD-5CD4-46CE-98C6-062F1E15BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,13 @@
   </si>
   <si>
     <t>0.000052,0.000052,0.000052</t>
+  </si>
+  <si>
+    <t>1긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000054,0.000054,0.000054</t>
   </si>
 </sst>
 </file>
@@ -637,11 +644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1115,6 +1122,23 @@
         <v>58</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879BB3BD-5CD4-46CE-98C6-062F1E15BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27980E4B-7364-4822-9383-52A9AE2D615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,34 @@
   </si>
   <si>
     <t>0.000054,0.000054,0.000054</t>
+  </si>
+  <si>
+    <t>100긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000056,0.000056,0.000056</t>
+  </si>
+  <si>
+    <t>0.000058,0.000058,0.000058</t>
+  </si>
+  <si>
+    <t>0.000060,0.000060,0.000060</t>
+  </si>
+  <si>
+    <t>0.000062,0.000062,0.000062</t>
   </si>
 </sst>
 </file>
@@ -636,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -644,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1139,6 +1167,74 @@
         <v>60</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1E+85</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1E+86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9.9999999999999996E+86</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/GradeTestTable.xlsx
+++ b/Assets/06.Table/GradeTestTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27980E4B-7364-4822-9383-52A9AE2D615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB654F57-2AD5-4525-9CE2-CDB362FBBB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GradeTestTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,20 @@
   </si>
   <si>
     <t>0.000062,0.000062,0.000062</t>
+  </si>
+  <si>
+    <t>10갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000064,0.000064,0.000064</t>
+  </si>
+  <si>
+    <t>0.000066,0.000066,0.000066</t>
   </si>
 </sst>
 </file>
@@ -664,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,11 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1235,6 +1249,40 @@
         <v>68</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9.9999999999999999E+88</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>9.9999999999999997E+89</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
